--- a/correcting-missing-places.xlsx
+++ b/correcting-missing-places.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\codebaker\all_r\lucha-drogas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4871D6EA-2B34-4AF6-B02A-8D764E1CE65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,218 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Place</t>
+  </si>
+  <si>
+    <t>AARHUS</t>
+  </si>
+  <si>
+    <t>AGUAS INTERNACIONALES</t>
+  </si>
+  <si>
+    <t>AGUAS JURISDICCIONALES</t>
+  </si>
+  <si>
+    <t>ALBANIA</t>
+  </si>
+  <si>
+    <t>ALEMANIA</t>
+  </si>
+  <si>
+    <t>ANTILLAS HOLANDESAS</t>
+  </si>
+  <si>
+    <t>ANTILLAS NEERLANDESAS</t>
+  </si>
+  <si>
+    <t>ARGENTINA</t>
+  </si>
+  <si>
+    <t>ARUBA</t>
+  </si>
+  <si>
+    <t>BAHAMAS</t>
+  </si>
+  <si>
+    <t>BELGICA</t>
+  </si>
+  <si>
+    <t>BELICE</t>
+  </si>
+  <si>
+    <t>BRASIL</t>
+  </si>
+  <si>
+    <t>CABO VERDE</t>
+  </si>
+  <si>
+    <t>CANADA</t>
+  </si>
+  <si>
+    <t>CHILE</t>
+  </si>
+  <si>
+    <t>CHINA</t>
+  </si>
+  <si>
+    <t>COSTA RICA</t>
+  </si>
+  <si>
+    <t>CROACIA</t>
+  </si>
+  <si>
+    <t>CURAZAO</t>
+  </si>
+  <si>
+    <t>DOVER</t>
+  </si>
+  <si>
+    <t>ECUADOR</t>
+  </si>
+  <si>
+    <t>EL SALVADOR</t>
+  </si>
+  <si>
+    <t>ESPAÑA</t>
+  </si>
+  <si>
+    <t>ESTADOS UNIDOS</t>
+  </si>
+  <si>
+    <t>ESTADOS UNIDOS DE AMERICA</t>
+  </si>
+  <si>
+    <t>FRANCIA</t>
+  </si>
+  <si>
+    <t>GUATEMALA</t>
+  </si>
+  <si>
+    <t>GUAYANA</t>
+  </si>
+  <si>
+    <t>GUINEA</t>
+  </si>
+  <si>
+    <t>GUINEA BISSAU</t>
+  </si>
+  <si>
+    <t>HONDURAS</t>
+  </si>
+  <si>
+    <t>HOLANDA</t>
+  </si>
+  <si>
+    <t>INGLATERRA</t>
+  </si>
+  <si>
+    <t>ISLAS VIRGENES BRITANICAS</t>
+  </si>
+  <si>
+    <t>ITALIA</t>
+  </si>
+  <si>
+    <t>JAMAICA</t>
+  </si>
+  <si>
+    <t>LA HABANA</t>
+  </si>
+  <si>
+    <t>LIBERIA</t>
+  </si>
+  <si>
+    <t>MACEDONIA</t>
+  </si>
+  <si>
+    <t>MADRID</t>
+  </si>
+  <si>
+    <t>MALTA</t>
+  </si>
+  <si>
+    <t>MAR PACIFICO</t>
+  </si>
+  <si>
+    <t>MARTINICA</t>
+  </si>
+  <si>
+    <t>MEXICO</t>
+  </si>
+  <si>
+    <t>MIAMI</t>
+  </si>
+  <si>
+    <t>NICARAGUA</t>
+  </si>
+  <si>
+    <t>PAISES BAJOS</t>
+  </si>
+  <si>
+    <t>PANAMA</t>
+  </si>
+  <si>
+    <t>PARAGUAY</t>
+  </si>
+  <si>
+    <t>PERU</t>
+  </si>
+  <si>
+    <t>PORTUGAL</t>
+  </si>
+  <si>
+    <t>PUERTO RICO</t>
+  </si>
+  <si>
+    <t>PUERTO VLISSINGEN</t>
+  </si>
+  <si>
+    <t>REINO UNIDO</t>
+  </si>
+  <si>
+    <t>REPUBLICA DOMINICANA</t>
+  </si>
+  <si>
+    <t>RUMANIA</t>
+  </si>
+  <si>
+    <t>RUSIA</t>
+  </si>
+  <si>
+    <t>SIN ESTABLECER</t>
+  </si>
+  <si>
+    <t>SUDAFRICA</t>
+  </si>
+  <si>
+    <t>SURINAM</t>
+  </si>
+  <si>
+    <t>SURINAN</t>
+  </si>
+  <si>
+    <t>TURQUIA</t>
+  </si>
+  <si>
+    <t>UCRANIA</t>
+  </si>
+  <si>
+    <t>URUGUAY</t>
+  </si>
+  <si>
+    <t>VENEZUELA</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +243,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,8 +284,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +577,556 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:B27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>